--- a/data/model_performance.xlsx
+++ b/data/model_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,6 +1230,80 @@
         <v>0.862170067345129</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-19-10-51-32</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>64</v>
+      </c>
+      <c r="G22" t="n">
+        <v>46.0758166831034</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4973.262376139272</v>
+      </c>
+      <c r="I22" t="n">
+        <v>70.52136113362583</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05047615617513657</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9300328704454043</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-19-11-04-33</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>64</v>
+      </c>
+      <c r="G23" t="n">
+        <v>64.53937819982617</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8186.040185068414</v>
+      </c>
+      <c r="I23" t="n">
+        <v>90.47673836444599</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.08308426290750504</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.884831617292083</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/model_performance.xlsx
+++ b/data/model_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,6 +1304,117 @@
         <v>0.884831617292083</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-03-19-11-30-22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>80.6610885426423</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12552.18143538207</v>
+      </c>
+      <c r="I24" t="n">
+        <v>112.0365183115848</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1273984462022781</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8234049182892923</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-03-19-11-35-29</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>93.42806958412417</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16930.25264921909</v>
+      </c>
+      <c r="I25" t="n">
+        <v>130.1163043174033</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1718337386846542</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7617797692597384</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-03-19-11-37-28</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>64</v>
+      </c>
+      <c r="G26" t="n">
+        <v>43.02415232799621</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4283.897586208462</v>
+      </c>
+      <c r="I26" t="n">
+        <v>65.45149032839865</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.04347943887114525</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9397226318709839</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
